--- a/data/trans_camb/P54_A_7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_7_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,09</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,1; -6,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,43; -6,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,71; -3,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,57; -2,88</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,98</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,23; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,16; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,35; -1,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,31; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,47; -1,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 1,41</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,44%</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 367,05</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,74</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,58; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,06; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,16; -4,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,9; -3,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,74; -3,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; -3,2</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,99%</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -32,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -24,79</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,35; -1,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,13; 1,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,64; -4,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,9; -1,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,76; -4,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,35; -2,23</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,32%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,22%</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 6,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,68; -24,86</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,58</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,68; -5,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,68; -5,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,29; -2,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,14; -2,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,22; -5,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,37; -5,57</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,45</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,19; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,46; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,85; 1,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,84; -2,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,77; -0,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,89; -2,46</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,98%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,47%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,14</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,67</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; -3,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; -2,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,47; -6,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,79; -5,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,24; -5,41</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,7; -4,68</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,14%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,24%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,05%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,11%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,75%</t>
         </is>
       </c>
     </row>
@@ -1656,27 +1656,34 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -65,16</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -82,17</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,61; -69,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -88,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,15; -78,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
